--- a/GTI-RG-06Fichamantenimiento.xlsx
+++ b/GTI-RG-06Fichamantenimiento.xlsx
@@ -1249,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1400,54 +1400,20 @@
     <xf numFmtId="9" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,13 +1425,52 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,16 +1487,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1779,7 +1781,9 @@
   </sheetPr>
   <dimension ref="A1:AQ992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1853,18 +1857,18 @@
     </row>
     <row r="2" spans="1:43" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1900,18 +1904,18 @@
     </row>
     <row r="3" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1992,20 +1996,20 @@
     </row>
     <row r="5" spans="1:43" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="67"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="67"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2041,20 +2045,16 @@
     </row>
     <row r="6" spans="1:43" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="67"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="67"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -2090,16 +2090,16 @@
     </row>
     <row r="7" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2135,18 +2135,18 @@
     </row>
     <row r="8" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2229,16 +2229,16 @@
     </row>
     <row r="10" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
       <c r="L10" s="2"/>
@@ -2276,14 +2276,14 @@
     </row>
     <row r="11" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="13" t="s">
         <v>9</v>
       </c>
@@ -3340,15 +3340,15 @@
       <c r="B26" s="16">
         <v>15</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="25"/>
       <c r="K26" s="26"/>
       <c r="L26" s="2"/>
@@ -3410,16 +3410,16 @@
     </row>
     <row r="27" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3458,18 +3458,18 @@
     </row>
     <row r="28" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="87"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
@@ -3505,16 +3505,16 @@
     </row>
     <row r="29" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="89"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3550,16 +3550,16 @@
     </row>
     <row r="30" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="89"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3595,16 +3595,16 @@
     </row>
     <row r="31" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="89"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3640,16 +3640,16 @@
     </row>
     <row r="32" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="89"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3685,16 +3685,16 @@
     </row>
     <row r="33" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="89"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3730,16 +3730,16 @@
     </row>
     <row r="34" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="92"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -3821,17 +3821,17 @@
     <row r="36" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="35"/>
-      <c r="G36" s="83" t="s">
+      <c r="G36" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="36"/>
@@ -3870,13 +3870,13 @@
     <row r="37" spans="1:43" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="35"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="2"/>
@@ -46888,7 +46888,28 @@
       <c r="AQ992" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="34">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B10:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="C36:E36"/>
@@ -46902,31 +46923,6 @@
     <mergeCell ref="B32:K32"/>
     <mergeCell ref="B33:K33"/>
     <mergeCell ref="B34:K34"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="B10:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -46964,138 +46960,138 @@
       <c r="N1" s="39"/>
     </row>
     <row r="2" spans="2:64" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="61"/>
-      <c r="BD2" s="61"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="61"/>
-      <c r="BG2" s="61"/>
-      <c r="BH2" s="61"/>
-      <c r="BI2" s="61"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="61"/>
-      <c r="BL2" s="62"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="83"/>
     </row>
     <row r="3" spans="2:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="64"/>
-      <c r="BH3" s="64"/>
-      <c r="BI3" s="64"/>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="65"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="62"/>
     </row>
     <row r="4" spans="2:64" x14ac:dyDescent="0.25">
       <c r="E4" s="40"/>
@@ -47110,260 +47106,260 @@
       <c r="N4" s="40"/>
     </row>
     <row r="5" spans="2:64" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="74"/>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="74"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74"/>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="74"/>
-      <c r="BH5" s="74"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="74"/>
-      <c r="BK5" s="74"/>
-      <c r="BL5" s="75"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="66"/>
+      <c r="BB5" s="66"/>
+      <c r="BC5" s="66"/>
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="66"/>
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="66"/>
+      <c r="BI5" s="66"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="66"/>
+      <c r="BL5" s="67"/>
     </row>
     <row r="6" spans="2:64" x14ac:dyDescent="0.2">
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="103" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="100" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="100" t="s">
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="100" t="s">
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="100" t="s">
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="100" t="s">
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="100" t="s">
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="AJ6" s="101"/>
-      <c r="AK6" s="101"/>
-      <c r="AL6" s="101"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="100" t="s">
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="AO6" s="101"/>
-      <c r="AP6" s="101"/>
-      <c r="AQ6" s="101"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="100" t="s">
+      <c r="AO6" s="92"/>
+      <c r="AP6" s="92"/>
+      <c r="AQ6" s="92"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="AT6" s="101"/>
-      <c r="AU6" s="101"/>
-      <c r="AV6" s="101"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="100" t="s">
+      <c r="AT6" s="92"/>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="92"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AY6" s="101"/>
-      <c r="AZ6" s="101"/>
-      <c r="BA6" s="101"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="100" t="s">
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="92"/>
+      <c r="BA6" s="92"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="BD6" s="101"/>
-      <c r="BE6" s="101"/>
-      <c r="BF6" s="101"/>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="100" t="s">
+      <c r="BD6" s="92"/>
+      <c r="BE6" s="92"/>
+      <c r="BF6" s="92"/>
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="BI6" s="101"/>
-      <c r="BJ6" s="101"/>
-      <c r="BK6" s="101"/>
-      <c r="BL6" s="102"/>
+      <c r="BI6" s="92"/>
+      <c r="BJ6" s="92"/>
+      <c r="BK6" s="92"/>
+      <c r="BL6" s="93"/>
     </row>
     <row r="7" spans="2:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="104" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="93" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="93" t="s">
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="93" t="s">
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="93" t="s">
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="93" t="s">
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="93" t="s">
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="93" t="s">
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="93" t="s">
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="93" t="s">
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="93" t="s">
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="69"/>
-      <c r="BG7" s="89"/>
-      <c r="BH7" s="93" t="s">
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BI7" s="69"/>
-      <c r="BJ7" s="69"/>
-      <c r="BK7" s="69"/>
-      <c r="BL7" s="89"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="74"/>
     </row>
     <row r="8" spans="2:64" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="41" t="s">
         <v>49</v>
       </c>
@@ -60352,18 +60348,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="AI6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="AX6:BB6"/>
-    <mergeCell ref="BC6:BG6"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="BC7:BG7"/>
     <mergeCell ref="B2:BL2"/>
     <mergeCell ref="B3:BL3"/>
     <mergeCell ref="B5:B8"/>
@@ -60380,8 +60364,20 @@
     <mergeCell ref="T7:X7"/>
     <mergeCell ref="Y7:AC7"/>
     <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="AX6:BB6"/>
+    <mergeCell ref="BC6:BG6"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="BC7:BG7"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="AI6:AM6"/>
     <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AN7:AR7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
